--- a/Docs/Testing (TES)/Test_Cases/TS_Update.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Update.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
     <sheet name="Тестирование" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>N</t>
   </si>
@@ -136,6 +136,36 @@
   </si>
   <si>
     <t>1. Нажать на кнопку "Forced Update"                                                       2. Убедиться, что появилось сообщение "Update Is Completed Successfully" и кнопка "ОК", нажать на кнопку "ОК"                                                               3. Убедиться, что мы в разделе "Forsed Update"                                                                                4. Убедиться, что на сайте 3 фото из тестового аккаунта</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Pass                             3. Blocked                      4. Pass                             5. Blocked                      6. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked                      3. Blocked                      4. Pass                             5. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                        2. Pass                             3. Blocked                      4. Blocked                      5. Pass                             6. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                       2. Pass                             3. Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1. Blocked                       2. Pass                             3. Pass</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
   </si>
 </sst>
 </file>
@@ -210,15 +240,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -242,7 +272,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -309,8 +344,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I7"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -615,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,14 +830,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="8"/>
@@ -836,7 +871,7 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="8"/>
@@ -889,25 +924,25 @@
       <c r="E27" s="5"/>
     </row>
     <row r="46" spans="3:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="3:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="50" spans="3:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
+      <c r="C54" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -925,17 +960,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -972,16 +1008,171 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Update.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>N</t>
   </si>
@@ -166,13 +166,28 @@
   </si>
   <si>
     <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Pass                             3. Blocked                      4. Blocked                             5. Blocked                      6. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked                      3. Blocked                      4. Blocked                             5. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                        2. Pass                             3. Blocked                      4. Blocked                      5. Blocked                             6. Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +208,11 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -244,6 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -344,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -651,7 +674,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,19 +947,19 @@
       <c r="E27" s="5"/>
     </row>
     <row r="46" spans="3:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="3:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="50" spans="3:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="11"/>
@@ -960,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1195,168 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
